--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7629646580218663</v>
+        <v>0.7578991863717265</v>
       </c>
       <c r="C4">
-        <v>0.002942819499025862</v>
+        <v>0.003439649936998634</v>
       </c>
       <c r="D4">
-        <v>0.4744734199666635</v>
+        <v>0.46947239375279</v>
       </c>
       <c r="E4">
-        <v>0.004418088928089869</v>
+        <v>0.004940114662150552</v>
       </c>
       <c r="F4">
-        <v>0.9893421052631581</v>
+        <v>0.9909210526315789</v>
       </c>
       <c r="G4">
-        <v>0.001604485137592371</v>
+        <v>0.001646838291271324</v>
       </c>
       <c r="H4">
-        <v>0.3124486206062788</v>
+        <v>0.3080682203663673</v>
       </c>
       <c r="I4">
-        <v>0.00400602550615542</v>
+        <v>0.004468749632112856</v>
       </c>
       <c r="J4">
-        <v>0.983509798869951</v>
+        <v>0.9858820361529542</v>
       </c>
       <c r="K4">
-        <v>0.002237490394409014</v>
+        <v>0.002363886093869505</v>
       </c>
       <c r="L4">
-        <v>0.1955072463768115</v>
+        <v>0.1763285024154589</v>
       </c>
       <c r="M4">
-        <v>0.01563745441794284</v>
+        <v>0.01747454039070206</v>
       </c>
       <c r="N4">
-        <v>0.4086925795053005</v>
+        <v>0.3950883392226149</v>
       </c>
       <c r="O4">
-        <v>0.01105689098707946</v>
+        <v>0.01237960922993375</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7893586320874649</v>
+        <v>0.7919552504449531</v>
       </c>
       <c r="C5">
-        <v>0.003376609343208603</v>
+        <v>0.003431442071368696</v>
       </c>
       <c r="D5">
-        <v>0.5051226640735316</v>
+        <v>0.5059250085009562</v>
       </c>
       <c r="E5">
-        <v>0.003755597646866504</v>
+        <v>0.004794664965579898</v>
       </c>
       <c r="F5">
-        <v>0.9817105263157893</v>
+        <v>0.9818421052631578</v>
       </c>
       <c r="G5">
-        <v>0.001655178877875696</v>
+        <v>0.00184724123624469</v>
       </c>
       <c r="H5">
-        <v>0.3403578018190692</v>
+        <v>0.3412543279036424</v>
       </c>
       <c r="I5">
-        <v>0.003600911502380344</v>
+        <v>0.004590143977670158</v>
       </c>
       <c r="J5">
-        <v>0.9788748818169698</v>
+        <v>0.9795182290111688</v>
       </c>
       <c r="K5">
-        <v>0.001449005758212274</v>
+        <v>0.001629557586412256</v>
       </c>
       <c r="L5">
-        <v>0.2981642512077295</v>
+        <v>0.2988888888888889</v>
       </c>
       <c r="M5">
-        <v>0.01190638387614101</v>
+        <v>0.01503913400573004</v>
       </c>
       <c r="N5">
-        <v>0.4817314487632509</v>
+        <v>0.4822968197879859</v>
       </c>
       <c r="O5">
-        <v>0.008333618064372494</v>
+        <v>0.01056791737203805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8129369842460616</v>
+        <v>0.813649662415604</v>
       </c>
       <c r="C6">
-        <v>0.004472043889445443</v>
+        <v>0.004549021560886657</v>
       </c>
       <c r="D6">
-        <v>0.5327803399641956</v>
+        <v>0.5279999409984919</v>
       </c>
       <c r="E6">
-        <v>0.006637875453188169</v>
+        <v>0.006675969582247365</v>
       </c>
       <c r="F6">
-        <v>0.981935483870968</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="G6">
-        <v>0.003193230113365364</v>
+        <v>0.003216472693459038</v>
       </c>
       <c r="H6">
-        <v>0.3666677570105164</v>
+        <v>0.3619135443958891</v>
       </c>
       <c r="I6">
-        <v>0.006638289218449889</v>
+        <v>0.006625510933575496</v>
       </c>
       <c r="J6">
-        <v>0.9860380200431016</v>
+        <v>0.9874292094860183</v>
       </c>
       <c r="K6">
-        <v>0.002487426014976646</v>
+        <v>0.002523434899534549</v>
       </c>
       <c r="L6">
-        <v>0.3793023255813953</v>
+        <v>0.3651162790697674</v>
       </c>
       <c r="M6">
-        <v>0.01960707294687403</v>
+        <v>0.01997446057319668</v>
       </c>
       <c r="N6">
-        <v>0.5389743589743589</v>
+        <v>0.529059829059829</v>
       </c>
       <c r="O6">
-        <v>0.0136522958098938</v>
+        <v>0.01393177437343784</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8466466616654167</v>
+        <v>0.8460427606901726</v>
       </c>
       <c r="C7">
-        <v>0.005014957939726394</v>
+        <v>0.004966881537732948</v>
       </c>
       <c r="D7">
-        <v>0.5697749366928061</v>
+        <v>0.5634136391304183</v>
       </c>
       <c r="E7">
-        <v>0.008154590497292058</v>
+        <v>0.008103084339051936</v>
       </c>
       <c r="F7">
-        <v>0.9725806451612905</v>
+        <v>0.9751612903225808</v>
       </c>
       <c r="G7">
-        <v>0.002470619555249853</v>
+        <v>0.002855966944800947</v>
       </c>
       <c r="H7">
-        <v>0.4044276964496787</v>
+        <v>0.3976976163158591</v>
       </c>
       <c r="I7">
-        <v>0.008591238012869651</v>
+        <v>0.008615585670016968</v>
       </c>
       <c r="J7">
-        <v>0.9803822469183504</v>
+        <v>0.981915188452717</v>
       </c>
       <c r="K7">
-        <v>0.001792632725616139</v>
+        <v>0.002097199738998468</v>
       </c>
       <c r="L7">
-        <v>0.4736046511627907</v>
+        <v>0.4572093023255814</v>
       </c>
       <c r="M7">
-        <v>0.01881518329045517</v>
+        <v>0.01906226439528214</v>
       </c>
       <c r="N7">
-        <v>0.6058119658119658</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="O7">
-        <v>0.01339767167633454</v>
+        <v>0.01351016291057561</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.803891843971631</v>
+        <v>0.8035802938196557</v>
       </c>
       <c r="C8">
-        <v>0.004133972144310993</v>
+        <v>0.003469888745176286</v>
       </c>
       <c r="D8">
-        <v>0.4901239302344091</v>
+        <v>0.4839292981241807</v>
       </c>
       <c r="E8">
-        <v>0.008748102261640855</v>
+        <v>0.008968259687128277</v>
       </c>
       <c r="F8">
-        <v>0.9638297872340427</v>
+        <v>0.9653191489361703</v>
       </c>
       <c r="G8">
-        <v>0.00367455144495954</v>
+        <v>0.003632915613774435</v>
       </c>
       <c r="H8">
-        <v>0.3302993185886746</v>
+        <v>0.324653634663645</v>
       </c>
       <c r="I8">
-        <v>0.008299560241598725</v>
+        <v>0.008419656007284004</v>
       </c>
       <c r="J8">
-        <v>0.9791916343031982</v>
+        <v>0.979464264708589</v>
       </c>
       <c r="K8">
-        <v>0.001842746490610003</v>
+        <v>0.001787153231014638</v>
       </c>
       <c r="L8">
-        <v>0.4386309523809523</v>
+        <v>0.4222023809523809</v>
       </c>
       <c r="M8">
-        <v>0.02283652267417108</v>
+        <v>0.02406324427360118</v>
       </c>
       <c r="N8">
-        <v>0.5534418604651163</v>
+        <v>0.5409302325581395</v>
       </c>
       <c r="O8">
-        <v>0.0171549923487293</v>
+        <v>0.01807896071098192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.827115768463074</v>
+        <v>0.8270134730538919</v>
       </c>
       <c r="C9">
-        <v>0.003623673213750234</v>
+        <v>0.003858890213735644</v>
       </c>
       <c r="D9">
-        <v>0.5409276427263506</v>
+        <v>0.5377902494464888</v>
       </c>
       <c r="E9">
-        <v>0.007456146596065083</v>
+        <v>0.006442813364207156</v>
       </c>
       <c r="F9">
-        <v>0.9541666666666666</v>
+        <v>0.9572916666666665</v>
       </c>
       <c r="G9">
-        <v>0.003475996583363394</v>
+        <v>0.003494568380285612</v>
       </c>
       <c r="H9">
-        <v>0.3789178509673573</v>
+        <v>0.3750470052822469</v>
       </c>
       <c r="I9">
-        <v>0.00757191451049305</v>
+        <v>0.006599454082994671</v>
       </c>
       <c r="J9">
-        <v>0.9771425362198509</v>
+        <v>0.9782390634556676</v>
       </c>
       <c r="K9">
-        <v>0.001479781248652667</v>
+        <v>0.001494722638500368</v>
       </c>
       <c r="L9">
-        <v>0.541377245508982</v>
+        <v>0.5346706586826346</v>
       </c>
       <c r="M9">
-        <v>0.01750389877089875</v>
+        <v>0.01485280657785693</v>
       </c>
       <c r="N9">
-        <v>0.6335348837209303</v>
+        <v>0.6290232558139536</v>
       </c>
       <c r="O9">
-        <v>0.01292001303020585</v>
+        <v>0.0109222585971922</v>
       </c>
     </row>
   </sheetData>
